--- a/data/output/FV2504_FV2410/UTILTS/25004.xlsx
+++ b/data/output/FV2504_FV2410/UTILTS/25004.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="264">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="264">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -899,6 +899,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U111" totalsRowShown="0">
+  <autoFilter ref="A1:U111"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1188,7 +1218,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6658,5 +6691,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILTS/25004.xlsx
+++ b/data/output/FV2504_FV2410/UTILTS/25004.xlsx
@@ -1686,7 +1686,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3598,7 +3598,7 @@
         <v>245</v>
       </c>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4240,7 +4240,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4660,7 +4660,7 @@
         <v>248</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -4870,7 +4870,7 @@
         <v>250</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5018,7 +5018,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5204,52 +5204,52 @@
       </c>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E70" s="5"/>
+      <c r="E70" s="2"/>
       <c r="F70" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5" t="s">
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K70" s="5"/>
+      <c r="K70" s="2"/>
       <c r="L70" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="M70" s="5" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N70" s="5" t="s">
+      <c r="N70" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O70" s="5" t="s">
+      <c r="O70" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P70" s="5"/>
+      <c r="P70" s="2"/>
       <c r="Q70" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5" t="s">
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="V70" s="5"/>
+      <c r="V70" s="2"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="5" t="s">
@@ -5426,52 +5426,52 @@
       <c r="V73" s="5"/>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E74" s="5"/>
+      <c r="E74" s="2"/>
       <c r="F74" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5" t="s">
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K74" s="5"/>
+      <c r="K74" s="2"/>
       <c r="L74" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="M74" s="5" t="s">
+      <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="5" t="s">
+      <c r="N74" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O74" s="5" t="s">
+      <c r="O74" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P74" s="5"/>
+      <c r="P74" s="2"/>
       <c r="Q74" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5" t="s">
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="V74" s="5"/>
+      <c r="V74" s="2"/>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="5" t="s">
@@ -5648,54 +5648,54 @@
       <c r="V77" s="5"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E78" s="5"/>
+      <c r="E78" s="2"/>
       <c r="F78" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5" t="s">
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K78" s="5" t="s">
+      <c r="K78" s="2" t="s">
         <v>252</v>
       </c>
       <c r="L78" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="M78" s="5" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N78" s="5" t="s">
+      <c r="N78" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O78" s="5" t="s">
+      <c r="O78" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P78" s="5"/>
+      <c r="P78" s="2"/>
       <c r="Q78" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5" t="s">
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="V78" s="5" t="s">
+      <c r="V78" s="2" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5874,54 +5874,54 @@
       <c r="V81" s="5"/>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E82" s="5"/>
+      <c r="E82" s="2"/>
       <c r="F82" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5" t="s">
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K82" s="5" t="s">
+      <c r="K82" s="2" t="s">
         <v>253</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="M82" s="5" t="s">
+      <c r="M82" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N82" s="5" t="s">
+      <c r="N82" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O82" s="5" t="s">
+      <c r="O82" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P82" s="5"/>
+      <c r="P82" s="2"/>
       <c r="Q82" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5" t="s">
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="V82" s="5" t="s">
+      <c r="V82" s="2" t="s">
         <v>253</v>
       </c>
     </row>
@@ -6100,54 +6100,54 @@
       <c r="V85" s="5"/>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E86" s="5"/>
+      <c r="E86" s="2"/>
       <c r="F86" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5" t="s">
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K86" s="5" t="s">
+      <c r="K86" s="2" t="s">
         <v>254</v>
       </c>
       <c r="L86" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="M86" s="5" t="s">
+      <c r="M86" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N86" s="5" t="s">
+      <c r="N86" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O86" s="5" t="s">
+      <c r="O86" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P86" s="5"/>
+      <c r="P86" s="2"/>
       <c r="Q86" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5" t="s">
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="V86" s="5" t="s">
+      <c r="V86" s="2" t="s">
         <v>254</v>
       </c>
     </row>
@@ -6570,7 +6570,7 @@
         <v>256</v>
       </c>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -6698,52 +6698,52 @@
       <c r="V96" s="5"/>
     </row>
     <row r="97" spans="1:22">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E97" s="5"/>
+      <c r="E97" s="2"/>
       <c r="F97" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5" t="s">
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K97" s="5"/>
+      <c r="K97" s="2"/>
       <c r="L97" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="M97" s="5" t="s">
+      <c r="M97" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N97" s="5" t="s">
+      <c r="N97" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O97" s="5" t="s">
+      <c r="O97" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P97" s="5"/>
+      <c r="P97" s="2"/>
       <c r="Q97" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="R97" s="5"/>
-      <c r="S97" s="5"/>
-      <c r="T97" s="5"/>
-      <c r="U97" s="5" t="s">
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="V97" s="5"/>
+      <c r="V97" s="2"/>
     </row>
     <row r="98" spans="1:22">
       <c r="A98" s="5" t="s">
@@ -6882,7 +6882,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -7086,7 +7086,7 @@
         <v>252</v>
       </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -7328,48 +7328,48 @@
       <c r="V108" s="5"/>
     </row>
     <row r="109" spans="1:22">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5" t="s">
+      <c r="C109" s="2"/>
+      <c r="D109" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E109" s="5"/>
+      <c r="E109" s="2"/>
       <c r="F109" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5" t="s">
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K109" s="5"/>
+      <c r="K109" s="2"/>
       <c r="L109" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="M109" s="5" t="s">
+      <c r="M109" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N109" s="5"/>
-      <c r="O109" s="5" t="s">
+      <c r="N109" s="2"/>
+      <c r="O109" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P109" s="5"/>
+      <c r="P109" s="2"/>
       <c r="Q109" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="R109" s="5"/>
-      <c r="S109" s="5"/>
-      <c r="T109" s="5"/>
-      <c r="U109" s="5" t="s">
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="V109" s="5"/>
+      <c r="V109" s="2"/>
     </row>
     <row r="110" spans="1:22">
       <c r="A110" s="5" t="s">
